--- a/系統分析/範本/yyyyMM(起)-yyyyMM(迄)-事件監控統計表_yyyyMMdd_hhmm.xlsx
+++ b/系統分析/範本/yyyyMM(起)-yyyyMM(迄)-事件監控統計表_yyyyMMdd_hhmm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="災害事件一覽表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t>NO</t>
   </si>
@@ -377,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +442,15 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -533,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,16 +585,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,12 +606,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,17 +615,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -925,26 +928,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D25"/>
+      <selection activeCell="A4" sqref="A4:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1094,24 +1097,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -1133,8 +1136,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8">
@@ -1143,7 +1146,7 @@
       <c r="C4" s="9">
         <v>0.3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="8">
@@ -1153,8 +1156,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8">
@@ -1163,7 +1166,7 @@
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="8">
@@ -1173,8 +1176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8">
@@ -1183,7 +1186,7 @@
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8">
@@ -1193,8 +1196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8">
@@ -1203,7 +1206,7 @@
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="8">
@@ -1213,8 +1216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8">
@@ -1223,7 +1226,7 @@
       <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="8">
@@ -1233,8 +1236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8">
@@ -1243,7 +1246,7 @@
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="8">
@@ -1253,8 +1256,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8">
@@ -1263,7 +1266,7 @@
       <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="8">
@@ -1274,7 +1277,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8">
@@ -1283,7 +1286,7 @@
       <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8">
@@ -1292,10 +1295,10 @@
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8">
@@ -1304,7 +1307,7 @@
       <c r="C12" s="9">
         <v>0.2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="8">
@@ -1313,10 +1316,10 @@
       <c r="F12" s="9">
         <v>0.2</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8">
@@ -1325,7 +1328,7 @@
       <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="8">
@@ -1334,10 +1337,10 @@
       <c r="F13" s="9">
         <v>0</v>
       </c>
-      <c r="L13" s="27"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8">
@@ -1346,7 +1349,7 @@
       <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="8">
@@ -1355,10 +1358,10 @@
       <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="8">
@@ -1367,7 +1370,7 @@
       <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="8">
@@ -1376,10 +1379,10 @@
       <c r="F15" s="9">
         <v>0</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="8">
@@ -1388,7 +1391,7 @@
       <c r="C16" s="9">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="8">
@@ -1397,10 +1400,10 @@
       <c r="F16" s="9">
         <v>0</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="8">
@@ -1409,7 +1412,7 @@
       <c r="C17" s="9">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="8">
@@ -1418,10 +1421,10 @@
       <c r="F17" s="9">
         <v>0</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8">
@@ -1430,7 +1433,7 @@
       <c r="C18" s="9">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="8">
@@ -1439,10 +1442,10 @@
       <c r="F18" s="9">
         <v>0</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="8">
@@ -1451,7 +1454,7 @@
       <c r="C19" s="9">
         <v>0.4</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="8">
@@ -1460,10 +1463,10 @@
       <c r="F19" s="9">
         <v>0.4</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="8">
@@ -1472,7 +1475,7 @@
       <c r="C20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="8">
@@ -1481,10 +1484,10 @@
       <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="8">
@@ -1493,7 +1496,7 @@
       <c r="C21" s="9">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="8">
@@ -1502,10 +1505,10 @@
       <c r="F21" s="9">
         <v>0</v>
       </c>
-      <c r="L21" s="27"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="8">
@@ -1514,7 +1517,7 @@
       <c r="C22" s="9">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="8">
@@ -1523,10 +1526,10 @@
       <c r="F22" s="9">
         <v>0</v>
       </c>
-      <c r="L22" s="27"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="8">
@@ -1535,7 +1538,7 @@
       <c r="C23" s="9">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="8">
@@ -1544,10 +1547,10 @@
       <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="8">
@@ -1556,7 +1559,7 @@
       <c r="C24" s="9">
         <v>0.1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="8">
@@ -1565,10 +1568,10 @@
       <c r="F24" s="9">
         <v>0.1</v>
       </c>
-      <c r="L24" s="27"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="8">
@@ -1577,7 +1580,7 @@
       <c r="C25" s="9">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="8">
@@ -1586,10 +1589,10 @@
       <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="L25" s="27"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8">
@@ -1598,13 +1601,13 @@
       <c r="C26" s="9">
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="L26" s="27"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="8">
@@ -1613,13 +1616,13 @@
       <c r="C27" s="9">
         <v>0</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="L27" s="27"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="8">
@@ -1628,13 +1631,13 @@
       <c r="C28" s="9">
         <v>0</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="L28" s="27"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="8">
@@ -1643,13 +1646,13 @@
       <c r="C29" s="9">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="L29" s="27"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="8">
@@ -1658,13 +1661,13 @@
       <c r="C30" s="9">
         <v>0</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="8">
@@ -1673,24 +1676,30 @@
       <c r="C31" s="9">
         <v>0</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="11">
         <v>10</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="26">
         <v>1</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="D32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="11">
+        <v>10</v>
+      </c>
+      <c r="F32" s="26">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1708,7 +1717,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1720,21 +1729,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1744,8 +1753,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="2">
@@ -1755,8 +1764,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2">
@@ -1766,8 +1775,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2">
@@ -1777,8 +1786,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
@@ -1789,7 +1798,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="2">
@@ -1814,7 +1823,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1847,72 +1856,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
     </row>
     <row r="3" spans="1:30" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -2006,8 +2015,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="8">
@@ -2098,8 +2107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="8">
@@ -2190,8 +2199,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="8">
@@ -2282,8 +2291,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="8">
@@ -2374,95 +2383,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:30" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
         <v>1</v>
       </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2481,7 +2490,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -2507,60 +2516,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -2636,8 +2645,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="8">
@@ -2710,8 +2719,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="8">
@@ -2784,8 +2793,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="8">
@@ -2858,8 +2867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="8">
@@ -2932,77 +2941,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:24" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
         <v>1</v>
       </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3030,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3221,23 +3230,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -3257,7 +3266,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="8">
@@ -3274,7 +3283,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="8">
@@ -3291,7 +3300,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="8">
@@ -3308,7 +3317,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="8">
@@ -3325,7 +3334,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="8">
@@ -3342,7 +3351,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="8">
@@ -3358,20 +3367,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>6</v>
       </c>
     </row>
@@ -3394,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3405,56 +3414,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>68</v>
       </c>
     </row>
